--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1076330.654605341</v>
+        <v>1075618.352782297</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>3.199249640013477</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>80.55458773410322</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>11.70241598501917</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240824</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>49.36873040538038</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675145</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>72.00227733958195</v>
@@ -1430,13 +1430,13 @@
         <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="12">
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>104.3977043482519</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T12" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382081</v>
+        <v>109.6993771619031</v>
       </c>
       <c r="V12" t="n">
         <v>62.50065676233444</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256631</v>
+        <v>25.28169700256632</v>
       </c>
       <c r="S13" t="n">
         <v>57.28978021311276</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>80.28702624117739</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240824</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929895</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538038</v>
+        <v>49.36873040538029</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958187</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>93.31590342025918</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69.78385970872348</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>9.369887371298034</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693651</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242248</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U15" t="n">
-        <v>188.4979333192472</v>
+        <v>59.07980534382072</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233444</v>
+        <v>62.50065676233436</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394379</v>
+        <v>139.1758912420264</v>
       </c>
       <c r="X15" t="n">
-        <v>39.1646502864028</v>
+        <v>39.16465028640272</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095782</v>
+        <v>45.23602198095773</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256631</v>
+        <v>25.28169700256623</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311268</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725512</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5082928154978</v>
+        <v>110.5082928154977</v>
       </c>
       <c r="V16" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138202</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362674</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517473</v>
+        <v>43.77119125517464</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110062</v>
+        <v>38.99300866110053</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.43211268216731</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W17" t="n">
         <v>40.44879289878247</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>188.4979333192472</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V18" t="n">
-        <v>6.190398939702827</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>24.43972300435418</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2169,7 +2169,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="V21" t="n">
-        <v>23.87590202711199</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>41.11008448380168</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="22">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.86945587416103</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890777</v>
@@ -2448,22 +2448,22 @@
         <v>188.4979333192472</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>188.4979333192472</v>
+        <v>31.30917887851527</v>
       </c>
       <c r="Y24" t="n">
-        <v>87.20213173782727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
@@ -2573,7 +2573,7 @@
         <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147505</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444722</v>
+        <v>14.03224403444719</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818295</v>
+        <v>8.981130875818266</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864876</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
         <v>124.4117133017659</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y26" t="n">
         <v>168.8008168944489</v>
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>98.46618521660348</v>
       </c>
       <c r="D27" t="n">
-        <v>25.15954678137975</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489319</v>
+        <v>1.486173081489291</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288765</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140129</v>
+        <v>27.16417039140126</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301063</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469645</v>
+        <v>3.828163915469617</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024657</v>
+        <v>9.899535610024628</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217958</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632202</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456465</v>
+        <v>75.17180644456462</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044892</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533434</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241569</v>
+        <v>8.43470488424154</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167459</v>
+        <v>3.65652229016743</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>136.7207468571779</v>
       </c>
       <c r="D29" t="n">
-        <v>124.2874091182263</v>
+        <v>124.2874091182264</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376353</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7144991160125</v>
+        <v>189.7144991160126</v>
       </c>
       <c r="G29" t="n">
         <v>205.3534224386476</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845497</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147514</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444722</v>
+        <v>14.03224403444728</v>
       </c>
       <c r="T29" t="n">
-        <v>8.98113087581828</v>
+        <v>8.981130875818351</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864885</v>
       </c>
       <c r="V29" t="n">
         <v>107.3950330851511</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X29" t="n">
         <v>146.2979637707052</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="30">
@@ -2874,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.86945587416103</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>80.42276656845762</v>
+        <v>1.486173081489376</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2280694968886</v>
+        <v>23.74331897288771</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140129</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301063</v>
+        <v>53.21983305301069</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469645</v>
+        <v>72.4295488798986</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024657</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217966</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632211</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456465</v>
+        <v>75.17180644456471</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044894</v>
+        <v>31.624264660449</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533442</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241569</v>
+        <v>8.434704884241626</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167459</v>
+        <v>3.656522290167516</v>
       </c>
     </row>
     <row r="32">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,16 +3159,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250504</v>
+        <v>0.6584632146250512</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602338</v>
+        <v>229.5476343269872</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453702</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>180.2475638314472</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>3.000454048605377</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531533</v>
+        <v>21.12558397531534</v>
       </c>
       <c r="T34" t="n">
-        <v>9.44909805945778</v>
+        <v>9.449098059457782</v>
       </c>
       <c r="U34" t="n">
         <v>74.34409657770038</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0280721215645</v>
+        <v>102.0280721215646</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14632912491004</v>
+        <v>78.1463291249101</v>
       </c>
       <c r="D35" t="n">
-        <v>65.7129913859585</v>
+        <v>65.71299138595856</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41974380536737</v>
+        <v>99.41974380536743</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1400813837447</v>
+        <v>131.1400813837448</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7790047063797</v>
+        <v>146.7790047063798</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96223035228178</v>
+        <v>74.96223035228184</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82061535288324</v>
+        <v>48.82061535288329</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83729556949811</v>
+        <v>65.83729556949817</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72354603843735</v>
+        <v>87.72354603843741</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2263991621811</v>
+        <v>110.2263991621812</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>20.83221458685374</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>150.1112421323675</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59738871229683</v>
+        <v>16.59738871229688</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25153883306655</v>
+        <v>18.2515388330666</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0280721215645</v>
+        <v>102.0280721215646</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14632912491004</v>
+        <v>78.1463291249101</v>
       </c>
       <c r="D38" t="n">
-        <v>65.7129913859585</v>
+        <v>65.71299138595856</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41974380536737</v>
+        <v>99.41974380536743</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1400813837447</v>
+        <v>131.1400813837448</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7790047063797</v>
+        <v>146.7790047063798</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96223035228178</v>
+        <v>74.96223035228184</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82061535288324</v>
+        <v>48.82061535288329</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83729556949811</v>
+        <v>65.83729556949817</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72354603843735</v>
+        <v>87.72354603843741</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.2263991621811</v>
+        <v>110.2263991621812</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>30.10262347922318</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>48.47387188226727</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59738871229683</v>
+        <v>16.59738871229688</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25153883306655</v>
+        <v>18.2515388330666</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173706</v>
+        <v>9.14077227717371</v>
       </c>
       <c r="V41" t="n">
         <v>79.87001439367597</v>
@@ -3831,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3861,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>100.6891206701392</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>40.55323264438069</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153555</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042675127</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F44" t="n">
-        <v>162.1894804245374</v>
+        <v>162.1894804245375</v>
       </c>
       <c r="G44" t="n">
         <v>177.8284037471725</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173706</v>
+        <v>9.140772277173735</v>
       </c>
       <c r="V44" t="n">
-        <v>79.87001439367597</v>
+        <v>79.870014393676</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88669461029085</v>
+        <v>96.88669461029087</v>
       </c>
       <c r="X44" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.2757982029738</v>
+        <v>141.2757982029739</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,13 +4062,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,31 +4098,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>125.3420397383995</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153555</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>186.0519767103595</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308959</v>
       </c>
       <c r="V46" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973889</v>
       </c>
       <c r="W46" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385931</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4796,46 +4796,46 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="H8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="K8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M8" t="n">
-        <v>3.551813413473549</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
         <v>6.719070557086891</v>
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="C9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="D9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="E9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="F9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>3.42319711481442</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L9" t="n">
-        <v>6.590454258427762</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="M9" t="n">
-        <v>9.757711402041103</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="N9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="O9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
@@ -4905,13 +4905,13 @@
         <v>9.565433267111001</v>
       </c>
       <c r="R9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="S9" t="n">
         <v>6.333867974168094</v>
       </c>
       <c r="T9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="U9" t="n">
         <v>3.102302681225188</v>
@@ -4920,13 +4920,13 @@
         <v>3.102302681225188</v>
       </c>
       <c r="W9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="X9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>264.1921117115381</v>
+        <v>96.4481051040278</v>
       </c>
       <c r="C11" t="n">
-        <v>90.39692663263804</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D11" t="n">
-        <v>90.39692663263804</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E11" t="n">
-        <v>90.39692663263804</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F11" t="n">
-        <v>90.39692663263804</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G11" t="n">
-        <v>78.5763044255481</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H11" t="n">
-        <v>78.5763044255481</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I11" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
-        <v>98.17571186577339</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K11" t="n">
-        <v>267.8825731524726</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L11" t="n">
-        <v>314.6034156332327</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="M11" t="n">
-        <v>395.46531472018</v>
+        <v>388.3057426376491</v>
       </c>
       <c r="N11" t="n">
-        <v>470.7932078558724</v>
+        <v>463.6336357733415</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485401</v>
+        <v>505.0138425485399</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324994</v>
+        <v>666.4395714324992</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049696</v>
+        <v>737.0894290049694</v>
       </c>
       <c r="S11" t="n">
-        <v>687.2220245550903</v>
+        <v>687.2220245550902</v>
       </c>
       <c r="T11" t="n">
-        <v>642.4567546088767</v>
+        <v>687.2220245550902</v>
       </c>
       <c r="U11" t="n">
-        <v>569.7271815385919</v>
+        <v>614.4924514848053</v>
       </c>
       <c r="V11" t="n">
-        <v>425.5539295627492</v>
+        <v>470.3191995089626</v>
       </c>
       <c r="W11" t="n">
-        <v>264.1921117115381</v>
+        <v>470.3191995089626</v>
       </c>
       <c r="X11" t="n">
-        <v>264.1921117115381</v>
+        <v>286.8500579517522</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.1921117115381</v>
+        <v>96.4481051040278</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.54436736382071</v>
+        <v>24.5443673638207</v>
       </c>
       <c r="C12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
         <v>53.04316068142018</v>
@@ -5127,31 +5127,31 @@
         <v>170.3760798097943</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998545</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O12" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188887</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="R12" t="n">
-        <v>617.9111264193347</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="S12" t="n">
-        <v>512.4588998049388</v>
+        <v>563.5897804292642</v>
       </c>
       <c r="T12" t="n">
-        <v>322.0569469572143</v>
+        <v>373.1878275815399</v>
       </c>
       <c r="U12" t="n">
-        <v>262.3803759028499</v>
+        <v>262.3803759028498</v>
       </c>
       <c r="V12" t="n">
         <v>199.2483993752393</v>
@@ -5160,10 +5160,10 @@
         <v>109.797571674286</v>
       </c>
       <c r="X12" t="n">
-        <v>70.2373188597377</v>
+        <v>70.23731885973768</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.54436736382071</v>
+        <v>24.5443673638207</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C13" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D13" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E13" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F13" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G13" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H13" t="n">
-        <v>15.07983466553978</v>
+        <v>27.28046249895698</v>
       </c>
       <c r="I13" t="n">
-        <v>28.24217778979151</v>
+        <v>40.44280562320871</v>
       </c>
       <c r="J13" t="n">
-        <v>28.24217778979151</v>
+        <v>40.44280562320871</v>
       </c>
       <c r="K13" t="n">
-        <v>138.2492789635306</v>
+        <v>106.3051243499048</v>
       </c>
       <c r="L13" t="n">
-        <v>212.5590407811545</v>
+        <v>250.8416077757448</v>
       </c>
       <c r="M13" t="n">
-        <v>212.5590407811545</v>
+        <v>402.2436925423774</v>
       </c>
       <c r="N13" t="n">
-        <v>212.5590407811545</v>
+        <v>402.2436925423774</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8217271348926</v>
+        <v>402.2436925423774</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351834</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="Q13" t="n">
         <v>520.7166611426682</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633083</v>
+        <v>495.1795934633082</v>
       </c>
       <c r="S13" t="n">
         <v>437.3111286015782</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578861</v>
+        <v>391.237093957886</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604136</v>
+        <v>279.6125557604135</v>
       </c>
       <c r="V13" t="n">
         <v>211.9754335064922</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117145</v>
+        <v>98.68003660117144</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099495</v>
+        <v>54.46671210099494</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>520.655187269899</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="C14" t="n">
-        <v>520.655187269899</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="D14" t="n">
-        <v>520.655187269899</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="E14" t="n">
-        <v>330.2532344221746</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="F14" t="n">
-        <v>330.2532344221746</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="G14" t="n">
-        <v>249.155228117955</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554812</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021288</v>
+        <v>115.4328134021289</v>
       </c>
       <c r="K14" t="n">
-        <v>285.139674688828</v>
+        <v>115.4328134021289</v>
       </c>
       <c r="L14" t="n">
-        <v>331.8605171695881</v>
+        <v>162.153655882889</v>
       </c>
       <c r="M14" t="n">
-        <v>412.7224162565354</v>
+        <v>348.7666098689437</v>
       </c>
       <c r="N14" t="n">
-        <v>488.0503093922279</v>
+        <v>535.3795638549984</v>
       </c>
       <c r="O14" t="n">
-        <v>522.2709440848956</v>
+        <v>569.6001985476662</v>
       </c>
       <c r="P14" t="n">
-        <v>683.696672968855</v>
+        <v>731.0259274316255</v>
       </c>
       <c r="Q14" t="n">
         <v>753.9917332769887</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9917332769887</v>
+        <v>737.0894290049696</v>
       </c>
       <c r="S14" t="n">
-        <v>704.1243288271095</v>
+        <v>687.2220245550905</v>
       </c>
       <c r="T14" t="n">
-        <v>704.1243288271095</v>
+        <v>687.2220245550905</v>
       </c>
       <c r="U14" t="n">
-        <v>704.1243288271095</v>
+        <v>614.4924514848058</v>
       </c>
       <c r="V14" t="n">
-        <v>704.1243288271095</v>
+        <v>470.3191995089632</v>
       </c>
       <c r="W14" t="n">
-        <v>704.1243288271095</v>
+        <v>470.3191995089632</v>
       </c>
       <c r="X14" t="n">
-        <v>520.655187269899</v>
+        <v>376.0607112056711</v>
       </c>
       <c r="Y14" t="n">
-        <v>520.655187269899</v>
+        <v>376.0607112056711</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>204.4921089325761</v>
+        <v>24.54436736382062</v>
       </c>
       <c r="C15" t="n">
         <v>15.07983466553977</v>
@@ -5358,13 +5358,13 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142016</v>
+        <v>53.04316068142015</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N15" t="n">
         <v>538.6656803998544</v>
@@ -5382,25 +5382,25 @@
         <v>753.9917332769887</v>
       </c>
       <c r="S15" t="n">
-        <v>740.4134230073558</v>
+        <v>563.5897804292642</v>
       </c>
       <c r="T15" t="n">
-        <v>703.2188174998583</v>
+        <v>373.1878275815398</v>
       </c>
       <c r="U15" t="n">
-        <v>512.816864652134</v>
+        <v>313.5112565271754</v>
       </c>
       <c r="V15" t="n">
-        <v>449.6848881245234</v>
+        <v>250.3792799995649</v>
       </c>
       <c r="W15" t="n">
-        <v>360.2340604235701</v>
+        <v>109.7975716742857</v>
       </c>
       <c r="X15" t="n">
-        <v>320.6738076090218</v>
+        <v>70.23731885973751</v>
       </c>
       <c r="Y15" t="n">
-        <v>274.9808561131048</v>
+        <v>24.54436736382062</v>
       </c>
     </row>
     <row r="16">
@@ -5413,70 +5413,70 @@
         <v>15.07983466553977</v>
       </c>
       <c r="C16" t="n">
-        <v>15.07983466553977</v>
+        <v>26.65400701482436</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07983466553977</v>
+        <v>26.65400701482436</v>
       </c>
       <c r="E16" t="n">
-        <v>15.07983466553977</v>
+        <v>62.76140872625882</v>
       </c>
       <c r="F16" t="n">
-        <v>15.07983466553977</v>
+        <v>62.76140872625882</v>
       </c>
       <c r="G16" t="n">
-        <v>15.07983466553977</v>
+        <v>62.76140872625882</v>
       </c>
       <c r="H16" t="n">
-        <v>15.07983466553977</v>
+        <v>74.96203655967611</v>
       </c>
       <c r="I16" t="n">
-        <v>15.07983466553977</v>
+        <v>74.96203655967611</v>
       </c>
       <c r="J16" t="n">
-        <v>15.07983466553977</v>
+        <v>74.96203655967611</v>
       </c>
       <c r="K16" t="n">
-        <v>125.0869358392788</v>
+        <v>184.9691377334152</v>
       </c>
       <c r="L16" t="n">
-        <v>125.0869358392788</v>
+        <v>230.0518900222966</v>
       </c>
       <c r="M16" t="n">
-        <v>125.0869358392788</v>
+        <v>381.4539747889293</v>
       </c>
       <c r="N16" t="n">
-        <v>262.9810061886393</v>
+        <v>381.4539747889293</v>
       </c>
       <c r="O16" t="n">
-        <v>402.2436925423774</v>
+        <v>520.7166611426675</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426682</v>
+        <v>520.7166611426675</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426682</v>
+        <v>520.7166611426675</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633082</v>
+        <v>495.1795934633077</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015782</v>
+        <v>437.3111286015777</v>
       </c>
       <c r="T16" t="n">
-        <v>391.237093957886</v>
+        <v>391.2370939578856</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604135</v>
+        <v>279.6125557604132</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064922</v>
+        <v>211.9754335064919</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117144</v>
+        <v>98.68003660117127</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099494</v>
+        <v>54.46671210099485</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553977</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961946</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040791</v>
+        <v>410.1015905040792</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210055</v>
+        <v>369.3697837210057</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718623</v>
+        <v>294.5907522718625</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940553</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116214</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
@@ -5513,34 +5513,34 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J17" t="n">
-        <v>201.6927886515945</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K17" t="n">
-        <v>201.6927886515945</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L17" t="n">
-        <v>248.4136311323546</v>
+        <v>61.8006771462999</v>
       </c>
       <c r="M17" t="n">
-        <v>329.2755302193019</v>
+        <v>142.6625762332472</v>
       </c>
       <c r="N17" t="n">
-        <v>404.6034233549943</v>
+        <v>217.9904693689396</v>
       </c>
       <c r="O17" t="n">
-        <v>438.8240580476621</v>
+        <v>252.2111040616073</v>
       </c>
       <c r="P17" t="n">
-        <v>438.8240580476621</v>
+        <v>438.824058047662</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.1637696110815</v>
+        <v>625.4370120337168</v>
       </c>
       <c r="R17" t="n">
-        <v>563.7042339002529</v>
+        <v>637.9362055321465</v>
       </c>
       <c r="S17" t="n">
-        <v>632.9356035051038</v>
+        <v>707.1675751369974</v>
       </c>
       <c r="T17" t="n">
         <v>707.1675751369974</v>
@@ -5549,16 +5549,16 @@
         <v>753.9917332769887</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879308</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W17" t="n">
-        <v>689.465566023504</v>
+        <v>689.4655660235037</v>
       </c>
       <c r="X17" t="n">
-        <v>626.500875753078</v>
+        <v>626.5008757530777</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122037</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E18" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F18" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G18" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H18" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J18" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553979</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142012</v>
+        <v>53.04316068142016</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M18" t="n">
         <v>352.0527264137997</v>
@@ -5613,31 +5613,31 @@
         <v>753.9917332769887</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9917332769887</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9917332769887</v>
+        <v>610.9722821020001</v>
       </c>
       <c r="S18" t="n">
-        <v>753.9917332769887</v>
+        <v>610.9722821020001</v>
       </c>
       <c r="T18" t="n">
-        <v>563.5897804292642</v>
+        <v>420.5703292542757</v>
       </c>
       <c r="U18" t="n">
-        <v>563.5897804292642</v>
+        <v>230.1683764065513</v>
       </c>
       <c r="V18" t="n">
-        <v>557.3368522073422</v>
+        <v>39.76642355882683</v>
       </c>
       <c r="W18" t="n">
-        <v>366.9348993596177</v>
+        <v>39.76642355882683</v>
       </c>
       <c r="X18" t="n">
-        <v>366.9348993596177</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961939</v>
+        <v>463.3923242961946</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040783</v>
+        <v>410.101590504079</v>
       </c>
       <c r="D20" t="n">
-        <v>369.369783721005</v>
+        <v>369.3697837210054</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718617</v>
+        <v>294.5907522718622</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940547</v>
+        <v>187.770975794055</v>
       </c>
       <c r="G20" t="n">
         <v>65.15430707116214</v>
@@ -5747,55 +5747,55 @@
         <v>15.07983466553977</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993307</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J20" t="n">
-        <v>257.5663113459878</v>
+        <v>81.03311375901458</v>
       </c>
       <c r="K20" t="n">
-        <v>444.1792653320425</v>
+        <v>81.03311375901458</v>
       </c>
       <c r="L20" t="n">
-        <v>490.9001078128027</v>
+        <v>127.7539562397747</v>
       </c>
       <c r="M20" t="n">
-        <v>571.76200689975</v>
+        <v>314.3669102258294</v>
       </c>
       <c r="N20" t="n">
-        <v>647.0899000354424</v>
+        <v>389.6948033615218</v>
       </c>
       <c r="O20" t="n">
-        <v>681.3105347281102</v>
+        <v>423.9154380541896</v>
       </c>
       <c r="P20" t="n">
-        <v>681.3105347281102</v>
+        <v>610.5283920402443</v>
       </c>
       <c r="Q20" t="n">
-        <v>707.1675751369974</v>
+        <v>610.5283920402443</v>
       </c>
       <c r="R20" t="n">
-        <v>707.1675751369974</v>
+        <v>610.5283920402443</v>
       </c>
       <c r="S20" t="n">
-        <v>707.1675751369974</v>
+        <v>679.7597616450952</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369974</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="U20" t="n">
         <v>753.9917332769887</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879302</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235032</v>
+        <v>689.4655660235037</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530773</v>
+        <v>626.5008757530777</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122029</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>349.0707548268812</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="C21" t="n">
-        <v>349.0707548268812</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="D21" t="n">
-        <v>349.0707548268812</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="E21" t="n">
-        <v>175.5075509482957</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F21" t="n">
         <v>15.07983466553977</v>
@@ -5832,7 +5832,7 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142016</v>
+        <v>53.04316068142015</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097943</v>
@@ -5850,31 +5850,31 @@
         <v>753.9917332769887</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9917332769887</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="R21" t="n">
-        <v>753.9917332769887</v>
+        <v>610.9722821020001</v>
       </c>
       <c r="S21" t="n">
-        <v>753.9917332769887</v>
+        <v>610.9722821020001</v>
       </c>
       <c r="T21" t="n">
-        <v>563.5897804292642</v>
+        <v>610.9722821020001</v>
       </c>
       <c r="U21" t="n">
-        <v>373.1878275815398</v>
+        <v>420.5703292542757</v>
       </c>
       <c r="V21" t="n">
-        <v>349.0707548268812</v>
+        <v>420.5703292542757</v>
       </c>
       <c r="W21" t="n">
-        <v>349.0707548268812</v>
+        <v>379.0449913918497</v>
       </c>
       <c r="X21" t="n">
-        <v>349.0707548268812</v>
+        <v>379.0449913918497</v>
       </c>
       <c r="Y21" t="n">
-        <v>349.0707548268812</v>
+        <v>188.6430385441253</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961946</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C23" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040788</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210054</v>
+        <v>369.3697837210052</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718622</v>
+        <v>294.5907522718621</v>
       </c>
       <c r="F23" t="n">
-        <v>187.770975794055</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G23" t="n">
         <v>65.15430707116215</v>
@@ -5984,40 +5984,40 @@
         <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993307</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J23" t="n">
-        <v>257.5663113459878</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K23" t="n">
-        <v>444.1792653320425</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L23" t="n">
-        <v>490.9001078128027</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="M23" t="n">
-        <v>571.76200689975</v>
+        <v>282.5546877385418</v>
       </c>
       <c r="N23" t="n">
-        <v>647.0899000354424</v>
+        <v>357.8825808742342</v>
       </c>
       <c r="O23" t="n">
-        <v>681.3105347281102</v>
+        <v>544.4955348602889</v>
       </c>
       <c r="P23" t="n">
-        <v>707.1675751369975</v>
+        <v>544.4955348602889</v>
       </c>
       <c r="Q23" t="n">
-        <v>707.1675751369975</v>
+        <v>544.4955348602889</v>
       </c>
       <c r="R23" t="n">
-        <v>707.1675751369975</v>
+        <v>646.0359991494603</v>
       </c>
       <c r="S23" t="n">
-        <v>707.1675751369975</v>
+        <v>679.7597616450953</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1675751369975</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="U23" t="n">
         <v>753.9917332769888</v>
@@ -6032,7 +6032,7 @@
         <v>626.5008757530779</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C24" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D24" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E24" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F24" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G24" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H24" t="n">
         <v>15.07983466553978</v>
@@ -6069,7 +6069,7 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142015</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097943</v>
@@ -6087,31 +6087,31 @@
         <v>753.9917332769888</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0528889596544</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="R24" t="n">
-        <v>610.9722821020002</v>
+        <v>617.9111264193347</v>
       </c>
       <c r="S24" t="n">
-        <v>420.5703292542757</v>
+        <v>427.5091735716102</v>
       </c>
       <c r="T24" t="n">
-        <v>420.5703292542757</v>
+        <v>237.1072207238857</v>
       </c>
       <c r="U24" t="n">
-        <v>420.5703292542757</v>
+        <v>237.1072207238857</v>
       </c>
       <c r="V24" t="n">
-        <v>420.5703292542757</v>
+        <v>46.70526787616126</v>
       </c>
       <c r="W24" t="n">
-        <v>420.5703292542757</v>
+        <v>46.70526787616126</v>
       </c>
       <c r="X24" t="n">
-        <v>230.1683764065513</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y24" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="25">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874101</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942522</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350247</v>
+        <v>597.6637583350255</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471332</v>
+        <v>406.0329511471341</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141559</v>
+        <v>198.6052517141568</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845022</v>
+        <v>63.71974859845011</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J26" t="n">
         <v>171.2527996589549</v>
       </c>
       <c r="K26" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528777</v>
       </c>
       <c r="L26" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523988</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581073</v>
+        <v>926.2253300581071</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O26" t="n">
         <v>1458.473663923989</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757103</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
         <v>1781.660986883924</v>
@@ -6257,19 +6257,19 @@
         <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715703</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>672.5739588106054</v>
+        <v>135.3774925632264</v>
       </c>
       <c r="C27" t="n">
-        <v>672.5739588106054</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D27" t="n">
-        <v>647.1602751930501</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5970713144646</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F27" t="n">
-        <v>313.1693550317087</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G27" t="n">
-        <v>162.9222798048129</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K27" t="n">
         <v>73.88002543102245</v>
@@ -6324,31 +6324,31 @@
         <v>793.1206204512955</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512955</v>
+        <v>786.1817761339611</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512955</v>
+        <v>650.1011692763069</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512955</v>
+        <v>650.1011692763069</v>
       </c>
       <c r="T27" t="n">
-        <v>791.6194355204982</v>
+        <v>648.5999843455096</v>
       </c>
       <c r="U27" t="n">
-        <v>767.6362850428339</v>
+        <v>624.6168338678453</v>
       </c>
       <c r="V27" t="n">
-        <v>740.1977290919235</v>
+        <v>597.178277916935</v>
       </c>
       <c r="W27" t="n">
-        <v>686.4403219676703</v>
+        <v>327.7797086472264</v>
       </c>
       <c r="X27" t="n">
-        <v>682.5734897298222</v>
+        <v>323.9128764093783</v>
       </c>
       <c r="Y27" t="n">
-        <v>672.5739588106054</v>
+        <v>313.9133454901615</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I28" t="n">
-        <v>84.06216404661762</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J28" t="n">
-        <v>176.3748555582987</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K28" t="n">
-        <v>266.1625141760094</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="L28" t="n">
-        <v>266.1625141760094</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="M28" t="n">
-        <v>266.1625141760094</v>
+        <v>112.7064240684946</v>
       </c>
       <c r="N28" t="n">
-        <v>266.1625141760094</v>
+        <v>112.7064240684946</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1625141760094</v>
+        <v>112.7064240684946</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909793</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239874</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032151</v>
+        <v>157.675738203215</v>
       </c>
       <c r="V28" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259939</v>
       </c>
       <c r="W28" t="n">
-        <v>48.1300601973734</v>
+        <v>48.13006019737335</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389707</v>
+        <v>39.61015627389705</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.898422489611</v>
+        <v>1020.89842248961</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874111</v>
+        <v>882.7966579874104</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942532</v>
+        <v>757.2538204942524</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350257</v>
+        <v>597.6637583350249</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471343</v>
+        <v>406.0329511471334</v>
       </c>
       <c r="G29" t="n">
-        <v>198.605251714157</v>
+        <v>198.605251714156</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845022</v>
+        <v>63.71974859845029</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
-        <v>171.252799658955</v>
+        <v>171.2527996589548</v>
       </c>
       <c r="K29" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528778</v>
       </c>
       <c r="L29" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523988</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581073</v>
+        <v>926.2253300581074</v>
       </c>
       <c r="N29" t="n">
         <v>1212.903126212561</v>
@@ -6482,7 +6482,7 @@
         <v>1654.882514315172</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R29" t="n">
         <v>1795.834970757103</v>
@@ -6491,16 +6491,16 @@
         <v>1781.660986883924</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.58913751441</v>
       </c>
       <c r="U29" t="n">
         <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621683</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347172</v>
       </c>
       <c r="X29" t="n">
         <v>1353.629035366662</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>370.2600195326959</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C30" t="n">
-        <v>370.2600195326959</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D30" t="n">
-        <v>209.4799032937276</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
         <v>73.88002543102245</v>
@@ -6561,31 +6561,31 @@
         <v>793.1206204512955</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1817761339611</v>
+        <v>793.1206204512955</v>
       </c>
       <c r="R30" t="n">
-        <v>786.1817761339611</v>
+        <v>657.0400135936413</v>
       </c>
       <c r="S30" t="n">
-        <v>786.1817761339611</v>
+        <v>657.0400135936413</v>
       </c>
       <c r="T30" t="n">
-        <v>704.9466583880443</v>
+        <v>655.538828662844</v>
       </c>
       <c r="U30" t="n">
-        <v>465.3223457649244</v>
+        <v>631.5556781851797</v>
       </c>
       <c r="V30" t="n">
-        <v>437.8837898140141</v>
+        <v>388.4759600888137</v>
       </c>
       <c r="W30" t="n">
-        <v>384.1263826897609</v>
+        <v>334.7185529645605</v>
       </c>
       <c r="X30" t="n">
-        <v>380.2595504519127</v>
+        <v>261.5573924798144</v>
       </c>
       <c r="Y30" t="n">
-        <v>370.2600195326959</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6096003162256</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I31" t="n">
-        <v>118.6096003162256</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J31" t="n">
-        <v>118.6096003162256</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K31" t="n">
-        <v>263.5998229971885</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="L31" t="n">
-        <v>263.5998229971885</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="M31" t="n">
-        <v>263.5998229971885</v>
+        <v>180.7574272613012</v>
       </c>
       <c r="N31" t="n">
-        <v>263.5998229971885</v>
+        <v>180.7574272613012</v>
       </c>
       <c r="O31" t="n">
-        <v>263.5998229971885</v>
+        <v>180.7574272613012</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5998229971885</v>
+        <v>180.7574272613012</v>
       </c>
       <c r="Q31" t="n">
-        <v>263.5998229971885</v>
+        <v>266.1625141760098</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760098</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909798</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239878</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032151</v>
+        <v>157.6757382032154</v>
       </c>
       <c r="V31" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259942</v>
       </c>
       <c r="W31" t="n">
-        <v>48.1300601973734</v>
+        <v>48.13006019737352</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389707</v>
+        <v>39.61015627389713</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>1014.789988510277</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806676</v>
+        <v>877.5242945806677</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601</v>
+        <v>752.8175276600999</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734627</v>
+        <v>594.0635360734626</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581621</v>
+        <v>403.2687994581613</v>
       </c>
       <c r="G32" t="n">
         <v>196.6771705977749</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465898</v>
+        <v>62.62773805465899</v>
       </c>
       <c r="I32" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J32" t="n">
         <v>171.8162924559495</v>
@@ -6707,13 +6707,13 @@
         <v>636.2158862857848</v>
       </c>
       <c r="M32" t="n">
-        <v>909.3311676570746</v>
+        <v>909.3311676570754</v>
       </c>
       <c r="N32" t="n">
         <v>1196.828396579724</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059348</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
         <v>1640.446650218727</v>
@@ -6734,7 +6734,7 @@
         <v>1725.264198178542</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.620437351989</v>
+        <v>1617.62043735199</v>
       </c>
       <c r="W32" t="n">
         <v>1492.788110650069</v>
@@ -6743,7 +6743,7 @@
         <v>1345.848460242149</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.17865516378</v>
+        <v>1176.178655163781</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>369.6516796052824</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="C33" t="n">
-        <v>369.6516796052824</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="D33" t="n">
-        <v>369.6516796052824</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="E33" t="n">
-        <v>196.0884757266969</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="F33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="G33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="H33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="I33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982139</v>
+        <v>73.62408545982137</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9570045881956</v>
+        <v>190.9570045881955</v>
       </c>
       <c r="M33" t="n">
-        <v>372.633651192201</v>
+        <v>372.6336511922009</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029603</v>
+        <v>577.5386276029601</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219948</v>
+        <v>709.2395672219945</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="T33" t="n">
-        <v>792.1995661218876</v>
+        <v>792.1995661218873</v>
       </c>
       <c r="U33" t="n">
-        <v>769.0524862168135</v>
+        <v>560.3332688219002</v>
       </c>
       <c r="V33" t="n">
-        <v>742.4500008384932</v>
+        <v>317.2535507255343</v>
       </c>
       <c r="W33" t="n">
-        <v>560.3817545441021</v>
+        <v>47.8549814558256</v>
       </c>
       <c r="X33" t="n">
-        <v>557.3509928788442</v>
+        <v>44.82421979056765</v>
       </c>
       <c r="Y33" t="n">
-        <v>548.1875325322176</v>
+        <v>35.66075944394099</v>
       </c>
     </row>
     <row r="34">
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="C34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="D34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="E34" t="n">
-        <v>81.48993284519167</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="F34" t="n">
-        <v>156.1216552358861</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="G34" t="n">
-        <v>201.2772238449617</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="H34" t="n">
-        <v>249.2804059537984</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="I34" t="n">
-        <v>249.2804059537984</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J34" t="n">
-        <v>249.2804059537984</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="K34" t="n">
-        <v>249.2804059537984</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="L34" t="n">
-        <v>249.2804059537984</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="M34" t="n">
-        <v>249.2804059537984</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="N34" t="n">
-        <v>249.2804059537984</v>
+        <v>74.21516532464079</v>
       </c>
       <c r="O34" t="n">
         <v>249.2804059537984</v>
@@ -6895,13 +6895,13 @@
         <v>122.9678848370224</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099198</v>
+        <v>46.20197908099199</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010582</v>
+        <v>38.51814573010583</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.019067536109</v>
+        <v>623.0190675361092</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513513</v>
+        <v>544.0833815513515</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756357</v>
+        <v>477.7066225756359</v>
       </c>
       <c r="E35" t="n">
         <v>377.2826389338506</v>
@@ -6926,61 +6926,61 @@
         <v>244.8179102634017</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786671</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J35" t="n">
-        <v>178.5009941413865</v>
+        <v>214.1616385483602</v>
       </c>
       <c r="K35" t="n">
-        <v>178.5009941413865</v>
+        <v>214.1616385483602</v>
       </c>
       <c r="L35" t="n">
-        <v>225.2218366221467</v>
+        <v>260.8824810291204</v>
       </c>
       <c r="M35" t="n">
-        <v>306.0837357090941</v>
+        <v>497.3732287989679</v>
       </c>
       <c r="N35" t="n">
-        <v>381.4116288447865</v>
+        <v>572.7011219346603</v>
       </c>
       <c r="O35" t="n">
-        <v>415.6322635374544</v>
+        <v>606.921756627328</v>
       </c>
       <c r="P35" t="n">
-        <v>670.0297874835826</v>
+        <v>861.3192805734562</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5537443902409</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9595910354038</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962463</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.153696984131</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.843237480114</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984133</v>
+        <v>992.5294845984138</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413444</v>
+        <v>926.0271658413449</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782764</v>
+        <v>837.4175233782768</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.07772624476</v>
+        <v>726.0777262447604</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>181.2645810323582</v>
+        <v>231.2917800134605</v>
       </c>
       <c r="C36" t="n">
-        <v>181.2645810323582</v>
+        <v>41.87950574642426</v>
       </c>
       <c r="D36" t="n">
-        <v>181.2645810323582</v>
+        <v>41.87950574642426</v>
       </c>
       <c r="E36" t="n">
-        <v>181.2645810323582</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548268</v>
+        <v>58.80019076548267</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938568</v>
       </c>
       <c r="M36" t="n">
-        <v>357.8097564978623</v>
+        <v>357.8097564978622</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086215</v>
+        <v>562.7147329086214</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276559</v>
+        <v>694.4156725276558</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857559</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.0407857857559</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="R36" t="n">
-        <v>778.0407857857559</v>
+        <v>641.9601789281015</v>
       </c>
       <c r="S36" t="n">
-        <v>778.0407857857559</v>
+        <v>448.4341270897133</v>
       </c>
       <c r="T36" t="n">
-        <v>778.0407857857559</v>
+        <v>231.2917800134605</v>
       </c>
       <c r="U36" t="n">
-        <v>778.0407857857559</v>
+        <v>231.2917800134605</v>
       </c>
       <c r="V36" t="n">
-        <v>778.0407857857559</v>
+        <v>231.2917800134605</v>
       </c>
       <c r="W36" t="n">
-        <v>626.4132684803342</v>
+        <v>231.2917800134605</v>
       </c>
       <c r="X36" t="n">
-        <v>406.9052740970305</v>
+        <v>231.2917800134605</v>
       </c>
       <c r="Y36" t="n">
-        <v>181.2645810323582</v>
+        <v>231.2917800134605</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078061</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078061</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361096</v>
+        <v>623.0190675361098</v>
       </c>
       <c r="C38" t="n">
-        <v>544.083381551352</v>
+        <v>544.0833815513521</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756362</v>
+        <v>477.7066225756363</v>
       </c>
       <c r="E38" t="n">
         <v>377.282638933851</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634017</v>
+        <v>244.8179102634018</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786671</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J38" t="n">
-        <v>214.1616385483603</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K38" t="n">
-        <v>214.1616385483603</v>
+        <v>97.52153784708688</v>
       </c>
       <c r="L38" t="n">
-        <v>260.8824810291205</v>
+        <v>144.242380327847</v>
       </c>
       <c r="M38" t="n">
-        <v>413.2515397167248</v>
+        <v>225.1042794147943</v>
       </c>
       <c r="N38" t="n">
-        <v>488.5794328524173</v>
+        <v>482.9604806911227</v>
       </c>
       <c r="O38" t="n">
-        <v>746.4356341287455</v>
+        <v>740.816681967451</v>
       </c>
       <c r="P38" t="n">
-        <v>746.4356341287455</v>
+        <v>740.816681967451</v>
       </c>
       <c r="Q38" t="n">
-        <v>926.9595910354038</v>
+        <v>921.3406388741093</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9595910354038</v>
+        <v>997.7464855192723</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0563429962463</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.153696984131</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.843237480114</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984138</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W38" t="n">
-        <v>926.027165841345</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782769</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447606</v>
+        <v>726.0777262447609</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69.80037170138741</v>
+        <v>51.24355513265601</v>
       </c>
       <c r="C39" t="n">
-        <v>69.80037170138741</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D39" t="n">
-        <v>69.80037170138741</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E39" t="n">
-        <v>69.80037170138741</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548268</v>
+        <v>58.80019076548267</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938568</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978623</v>
+        <v>357.8097564978622</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086215</v>
+        <v>562.7147329086214</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276559</v>
+        <v>694.4156725276558</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857559</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857559</v>
+        <v>771.1019414684213</v>
       </c>
       <c r="R39" t="n">
-        <v>778.0407857857559</v>
+        <v>771.1019414684213</v>
       </c>
       <c r="S39" t="n">
-        <v>778.0407857857559</v>
+        <v>771.1019414684213</v>
       </c>
       <c r="T39" t="n">
-        <v>778.0407857857559</v>
+        <v>553.9595943921685</v>
       </c>
       <c r="U39" t="n">
-        <v>778.0407857857559</v>
+        <v>314.3352817690486</v>
       </c>
       <c r="V39" t="n">
-        <v>778.0407857857559</v>
+        <v>314.3352817690486</v>
       </c>
       <c r="W39" t="n">
-        <v>514.9490591493634</v>
+        <v>51.24355513265601</v>
       </c>
       <c r="X39" t="n">
-        <v>295.4410647660598</v>
+        <v>51.24355513265601</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.80037170138741</v>
+        <v>51.24355513265601</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078061</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078061</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753163</v>
+        <v>818.4263542753165</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564246</v>
+        <v>708.1276389564248</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465749</v>
+        <v>610.3878506465751</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706554</v>
+        <v>478.6008376706557</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660722</v>
+        <v>314.7730796660724</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
@@ -7409,40 +7409,40 @@
         <v>28.06597548400536</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323786</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5915955308619</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="L41" t="n">
-        <v>469.3124380116221</v>
+        <v>313.3864894880868</v>
       </c>
       <c r="M41" t="n">
-        <v>788.7740086218907</v>
+        <v>632.8480600983553</v>
       </c>
       <c r="N41" t="n">
-        <v>864.1019017575832</v>
+        <v>738.6763482947617</v>
       </c>
       <c r="O41" t="n">
-        <v>970.8303149430151</v>
+        <v>1011.496654510751</v>
       </c>
       <c r="P41" t="n">
-        <v>1194.488933838759</v>
+        <v>1235.155273406494</v>
       </c>
       <c r="Q41" t="n">
-        <v>1344.273985695032</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="R41" t="n">
-        <v>1389.94092728981</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="S41" t="n">
-        <v>1403.298774200268</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T41" t="n">
         <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889991</v>
+        <v>1394.065670889992</v>
       </c>
       <c r="V41" t="n">
         <v>1313.388888674157</v>
@@ -7454,7 +7454,7 @@
         <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181014</v>
+        <v>952.8480423181016</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>305.318631100572</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C42" t="n">
-        <v>305.318631100572</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D42" t="n">
-        <v>305.318631100572</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E42" t="n">
-        <v>305.318631100572</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F42" t="n">
-        <v>305.318631100572</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G42" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H42" t="n">
         <v>28.06597548400536</v>
@@ -7491,49 +7491,49 @@
         <v>28.06597548400536</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988576</v>
+        <v>66.02930149988575</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282599</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322654</v>
+        <v>365.0388672322653</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9438436430246</v>
+        <v>569.9438436430245</v>
       </c>
       <c r="O42" t="n">
-        <v>701.644783262059</v>
+        <v>701.6447832620589</v>
       </c>
       <c r="P42" t="n">
-        <v>785.269896520159</v>
+        <v>785.2698965201588</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.269896520159</v>
+        <v>778.3310522028244</v>
       </c>
       <c r="R42" t="n">
-        <v>785.269896520159</v>
+        <v>642.2504453451702</v>
       </c>
       <c r="S42" t="n">
-        <v>591.7438446817708</v>
+        <v>540.54426285008</v>
       </c>
       <c r="T42" t="n">
-        <v>591.7438446817708</v>
+        <v>540.54426285008</v>
       </c>
       <c r="U42" t="n">
-        <v>591.7438446817708</v>
+        <v>540.54426285008</v>
       </c>
       <c r="V42" t="n">
-        <v>550.7809834248206</v>
+        <v>297.4645447537141</v>
       </c>
       <c r="W42" t="n">
-        <v>524.8266254838757</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X42" t="n">
-        <v>305.318631100572</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y42" t="n">
-        <v>305.318631100572</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7600,10 @@
         <v>130.133623560695</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323076</v>
+        <v>82.00555512323078</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931777</v>
+        <v>77.86490262931778</v>
       </c>
       <c r="W43" t="n">
         <v>28.06597548400536</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753165</v>
+        <v>818.4263542753171</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564248</v>
+        <v>708.1276389564252</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465751</v>
+        <v>610.3878506465753</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706554</v>
+        <v>478.6008376706556</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660721</v>
+        <v>314.7730796660722</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
@@ -7652,46 +7652,46 @@
         <v>422.5915955308619</v>
       </c>
       <c r="L44" t="n">
-        <v>707.9121095349434</v>
+        <v>707.9121095349433</v>
       </c>
       <c r="M44" t="n">
-        <v>788.7740086218907</v>
+        <v>1027.373680145212</v>
       </c>
       <c r="N44" t="n">
-        <v>918.251231312847</v>
+        <v>1102.701573280904</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4718660055148</v>
+        <v>1194.488933838759</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.130484901258</v>
+        <v>1194.488933838759</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.915536757532</v>
+        <v>1344.273985695032</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.58247835231</v>
+        <v>1389.940927289811</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262768</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="T44" t="n">
         <v>1403.298774200268</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.065670889991</v>
+        <v>1394.065670889992</v>
       </c>
       <c r="V44" t="n">
         <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582954</v>
+        <v>1215.523540582955</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785752</v>
+        <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181016</v>
+        <v>952.8480423181022</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>351.8762545894867</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C45" t="n">
-        <v>351.8762545894867</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D45" t="n">
-        <v>351.8762545894867</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E45" t="n">
-        <v>178.3130507109011</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F45" t="n">
-        <v>178.3130507109011</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G45" t="n">
         <v>28.06597548400536</v>
@@ -7728,49 +7728,49 @@
         <v>28.06597548400536</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988578</v>
+        <v>66.02930149988575</v>
       </c>
       <c r="L45" t="n">
         <v>183.3622206282599</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322654</v>
+        <v>365.0388672322653</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430246</v>
+        <v>569.9438436430245</v>
       </c>
       <c r="O45" t="n">
-        <v>701.644783262059</v>
+        <v>701.6447832620589</v>
       </c>
       <c r="P45" t="n">
-        <v>785.269896520159</v>
+        <v>785.2698965201588</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.269896520159</v>
+        <v>778.3310522028244</v>
       </c>
       <c r="R45" t="n">
-        <v>785.269896520159</v>
+        <v>778.3310522028244</v>
       </c>
       <c r="S45" t="n">
-        <v>785.269896520159</v>
+        <v>584.8050003644362</v>
       </c>
       <c r="T45" t="n">
-        <v>785.269896520159</v>
+        <v>584.8050003644362</v>
       </c>
       <c r="U45" t="n">
-        <v>785.269896520159</v>
+        <v>458.1968794165579</v>
       </c>
       <c r="V45" t="n">
-        <v>785.269896520159</v>
+        <v>458.1968794165579</v>
       </c>
       <c r="W45" t="n">
-        <v>759.315538579214</v>
+        <v>432.2425214756128</v>
       </c>
       <c r="X45" t="n">
-        <v>539.8075441959104</v>
+        <v>432.2425214756128</v>
       </c>
       <c r="Y45" t="n">
-        <v>351.8762545894867</v>
+        <v>206.6018284109405</v>
       </c>
     </row>
     <row r="46">
@@ -7780,67 +7780,67 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.85388492394995</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C46" t="n">
-        <v>75.85388492394995</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D46" t="n">
-        <v>75.85388492394995</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E46" t="n">
-        <v>75.85388492394995</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F46" t="n">
-        <v>75.85388492394995</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="G46" t="n">
-        <v>75.85388492394995</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="H46" t="n">
-        <v>75.85388492394995</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="I46" t="n">
-        <v>75.85388492394995</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="J46" t="n">
-        <v>75.85388492394995</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="K46" t="n">
-        <v>75.85388492394995</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="L46" t="n">
-        <v>75.85388492394995</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="M46" t="n">
-        <v>75.85388492394995</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="N46" t="n">
-        <v>75.85388492394995</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="O46" t="n">
-        <v>75.85388492394995</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="P46" t="n">
-        <v>75.85388492394995</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="Q46" t="n">
-        <v>75.85388492394995</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="R46" t="n">
-        <v>113.0578949031935</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="S46" t="n">
-        <v>113.0578949031935</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="T46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323076</v>
+        <v>82.00555512323083</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931777</v>
+        <v>77.86490262931781</v>
       </c>
       <c r="W46" t="n">
         <v>28.06597548400536</v>
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.3658051887314</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>172.23559297146</v>
+        <v>172.1063303597423</v>
       </c>
       <c r="M9" t="n">
         <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>163.3068757699624</v>
+        <v>163.4361383816801</v>
       </c>
       <c r="O9" t="n">
         <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>166.6480266854964</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9012,7 +9012,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>301.7768813099999</v>
+        <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
         <v>292.1370682466384</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.3734735841509</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -23258,7 +23258,7 @@
         <v>195.9389762247655</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>91.50264549400779</v>
       </c>
       <c r="D11" t="n">
         <v>159.6238954891595</v>
@@ -23270,13 +23270,13 @@
         <v>225.0509854869457</v>
       </c>
       <c r="G11" t="n">
-        <v>228.9874928245616</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
         <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240824</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.31761724675144</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653821</v>
+        <v>15.63936994613493</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247655</v>
+        <v>7.441042905518259</v>
       </c>
       <c r="C14" t="n">
-        <v>172.057233228111</v>
+        <v>172.0572332281109</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891595</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E14" t="n">
-        <v>4.832714589321171</v>
+        <v>193.3306479085683</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0509854869457</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
-        <v>160.4028825684034</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240816</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929903</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675145</v>
+        <v>44.31761724675137</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958195</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726991</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>88.31854672137906</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1373032653821</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="15">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2.913225216616411e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>617352.3966235217</v>
+        <v>617352.3966235216</v>
       </c>
       <c r="C2" t="n">
-        <v>617352.396623522</v>
+        <v>617352.3966235218</v>
       </c>
       <c r="D2" t="n">
-        <v>617708.9210034052</v>
+        <v>617708.9210034051</v>
       </c>
       <c r="E2" t="n">
-        <v>531814.8001243938</v>
+        <v>531814.8001243939</v>
       </c>
       <c r="F2" t="n">
         <v>531814.800124394</v>
@@ -26332,19 +26332,19 @@
         <v>618602.9842009752</v>
       </c>
       <c r="I2" t="n">
-        <v>618602.984200975</v>
+        <v>618602.9842009752</v>
       </c>
       <c r="J2" t="n">
         <v>618602.9842009748</v>
       </c>
       <c r="K2" t="n">
-        <v>618602.9842009749</v>
+        <v>618602.9842009748</v>
       </c>
       <c r="L2" t="n">
-        <v>618602.9842009747</v>
+        <v>618602.9842009745</v>
       </c>
       <c r="M2" t="n">
-        <v>618602.9842009749</v>
+        <v>618602.9842009752</v>
       </c>
       <c r="N2" t="n">
         <v>618602.984200975</v>
@@ -26375,10 +26375,10 @@
         <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913329</v>
+        <v>95439.52541913322</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068792</v>
+        <v>143496.2830068793</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.6933126247</v>
+        <v>96101.69331262469</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232284</v>
+        <v>46197.3662923228</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924371</v>
+        <v>72254.91485924377</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>319428.0127862524</v>
       </c>
       <c r="F4" t="n">
-        <v>319428.0127862524</v>
+        <v>319428.0127862525</v>
       </c>
       <c r="G4" t="n">
         <v>390035.8808294743</v>
@@ -26439,7 +26439,7 @@
         <v>390035.8808294743</v>
       </c>
       <c r="J4" t="n">
-        <v>390902.4199788366</v>
+        <v>390902.4199788367</v>
       </c>
       <c r="K4" t="n">
         <v>390902.4199788366</v>
@@ -26454,10 +26454,10 @@
         <v>390077.6926381395</v>
       </c>
       <c r="O4" t="n">
-        <v>390464.7553018571</v>
+        <v>390464.7553018572</v>
       </c>
       <c r="P4" t="n">
-        <v>390464.7553018571</v>
+        <v>390464.7553018572</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.95693774778</v>
       </c>
       <c r="F5" t="n">
         <v>28642.95693774779</v>
@@ -26491,7 +26491,7 @@
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
         <v>47449.6772201635</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153490.6611158264</v>
+        <v>153486.1947316211</v>
       </c>
       <c r="C6" t="n">
-        <v>153490.6611158268</v>
+        <v>153486.1947316214</v>
       </c>
       <c r="D6" t="n">
-        <v>152716.4184491861</v>
+        <v>152713.2253663375</v>
       </c>
       <c r="E6" t="n">
-        <v>-95382.28477832059</v>
+        <v>-95692.24257859397</v>
       </c>
       <c r="F6" t="n">
-        <v>183743.8304003938</v>
+        <v>183433.8726001201</v>
       </c>
       <c r="G6" t="n">
-        <v>94455.23918654336</v>
+        <v>94455.23918654342</v>
       </c>
       <c r="H6" t="n">
         <v>189894.7646056767</v>
       </c>
       <c r="I6" t="n">
-        <v>189894.7646056766</v>
+        <v>189894.7646056767</v>
       </c>
       <c r="J6" t="n">
-        <v>36754.60399509555</v>
+        <v>36754.60399509536</v>
       </c>
       <c r="K6" t="n">
-        <v>180250.8870019748</v>
+        <v>180250.8870019747</v>
       </c>
       <c r="L6" t="n">
-        <v>84288.91329404394</v>
+        <v>84288.91329404371</v>
       </c>
       <c r="M6" t="n">
-        <v>141414.6296718253</v>
+        <v>141414.6296718256</v>
       </c>
       <c r="N6" t="n">
         <v>187611.9959641483</v>
       </c>
       <c r="O6" t="n">
-        <v>112086.1862110008</v>
+        <v>112086.1862110006</v>
       </c>
       <c r="P6" t="n">
         <v>184341.1010702443</v>
@@ -26695,7 +26695,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G2" t="n">
         <v>297.4476709269844</v>
@@ -26710,16 +26710,16 @@
         <v>213.484750524001</v>
       </c>
       <c r="K2" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L2" t="n">
         <v>214.3124603908652</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="O2" t="n">
         <v>241.009769215476</v>
@@ -26765,19 +26765,19 @@
         <v>101.1713840758395</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="M3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
     </row>
     <row r="4">
@@ -26811,7 +26811,7 @@
         <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
         <v>448.9587426892758</v>
@@ -26820,10 +26820,10 @@
         <v>445.7594930492623</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O4" t="n">
         <v>350.824693550067</v>
@@ -26917,10 +26917,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739165</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008437</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540355</v>
+        <v>57.74670786540349</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929161</v>
+        <v>63.13594470929169</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003844</v>
+        <v>90.36388418003838</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739165</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008437</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>351.3166263719594</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I8" t="n">
         <v>256.6898085504863</v>
@@ -27910,7 +27910,7 @@
         <v>250.1830790232068</v>
       </c>
       <c r="V8" t="n">
-        <v>320.879783609152</v>
+        <v>321.009699062343</v>
       </c>
       <c r="W8" t="n">
         <v>337.8964638257669</v>
@@ -27953,7 +27953,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>70.21701454982455</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>31.44843229210258</v>
       </c>
       <c r="R9" t="n">
-        <v>145.0317031582867</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T9" t="n">
-        <v>212.6488107764739</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>234.0431365621689</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>266.7045835770116</v>
+        <v>263.8866844940877</v>
       </c>
       <c r="X9" t="n">
         <v>217.3129144394706</v>
@@ -28111,22 +28111,22 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
-        <v>160.7168484597795</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K11" t="n">
-        <v>178.1482641530678</v>
+        <v>6.727192146300958</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8192473728357</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>7.231890992455206</v>
       </c>
       <c r="P11" t="n">
         <v>178.1482641530678</v>
@@ -28211,19 +28211,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>87.19308697175244</v>
+        <v>3.092858000757161</v>
       </c>
       <c r="T12" t="n">
-        <v>26.47299028624307</v>
+        <v>26.47299028624312</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>127.5286923349855</v>
       </c>
       <c r="V12" t="n">
         <v>178.1482641530678</v>
@@ -28263,34 +28263,34 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I13" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K13" t="n">
+        <v>133.5575748126203</v>
+      </c>
+      <c r="L13" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="L13" t="n">
-        <v>107.2121817205263</v>
-      </c>
       <c r="M13" t="n">
-        <v>25.21686539889344</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="N13" t="n">
         <v>16.52015736928134</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1482641530678</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P13" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1482641530678</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R13" t="n">
         <v>178.1482641530678</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K14" t="n">
-        <v>178.1482641530678</v>
+        <v>6.727192146300958</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q14" t="n">
-        <v>160.7168484597793</v>
+        <v>112.909520719607</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>106.9666346889422</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R15" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530678</v>
+        <v>3.092858000757133</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1482641530678</v>
+        <v>26.47299028624309</v>
       </c>
       <c r="U15" t="n">
-        <v>48.73013617764143</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530678</v>
+        <v>127.5286923349852</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="16">
@@ -28485,13 +28485,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -28500,58 +28500,58 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I16" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L16" t="n">
-        <v>32.15181624817887</v>
+        <v>77.68994987331152</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889344</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="N16" t="n">
-        <v>155.8070971161101</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="P16" t="n">
-        <v>178.1482641530678</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q16" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="J17" t="n">
-        <v>265.2795522838412</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300951</v>
+        <v>6.727192146300958</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,19 +28603,19 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108874</v>
+        <v>203.5899056703359</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.2872032630981</v>
+        <v>278.2096703566691</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269844</v>
+        <v>207.5069933605786</v>
       </c>
       <c r="S17" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U17" t="n">
         <v>297.4476709269844</v>
@@ -28661,10 +28661,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,10 +28685,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.86945587416103</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>191.5907913200043</v>
@@ -28697,19 +28697,19 @@
         <v>26.47299028624309</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764144</v>
       </c>
       <c r="V18" t="n">
-        <v>234.4585219756994</v>
+        <v>52.15098759615506</v>
       </c>
       <c r="W18" t="n">
-        <v>78.20665025776441</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>192.8731914351164</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.88635281477843</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28743,7 +28743,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J19" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K19" t="n">
         <v>67.02998013918997</v>
@@ -28761,7 +28761,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28819,19 +28819,19 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4476709269844</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2795522838412</v>
+        <v>143.4010927963868</v>
       </c>
       <c r="K20" t="n">
-        <v>195.2251254655481</v>
+        <v>6.727192146300958</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,22 +28840,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108874</v>
+        <v>203.589905670336</v>
       </c>
       <c r="Q20" t="n">
-        <v>115.8299596726615</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R20" t="n">
         <v>194.8815453823668</v>
       </c>
       <c r="S20" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269844</v>
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7446044746268</v>
@@ -28922,31 +28922,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.86945587416103</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T21" t="n">
-        <v>26.47299028624309</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
         <v>48.73013617764144</v>
       </c>
       <c r="V21" t="n">
-        <v>216.7730188882903</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>225.5944990932099</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477843</v>
       </c>
     </row>
     <row r="22">
@@ -28980,7 +28980,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J22" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K22" t="n">
         <v>67.02998013918997</v>
@@ -28998,7 +28998,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29056,16 +29056,16 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4476709269844</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J23" t="n">
-        <v>265.2795522838412</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K23" t="n">
-        <v>195.2251254655482</v>
+        <v>6.727192146300958</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29074,25 +29074,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P23" t="n">
-        <v>41.21019498632845</v>
+        <v>15.09197235108875</v>
       </c>
       <c r="Q23" t="n">
         <v>89.71173703742195</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5169945584482</v>
+        <v>261.5814011196957</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269844</v>
@@ -29132,7 +29132,7 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
         <v>107.3634103439873</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -29168,22 +29168,22 @@
         <v>3.092858000757104</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624306</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615503</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.81498112022339</v>
+        <v>186.0037355609553</v>
       </c>
       <c r="Y24" t="n">
-        <v>136.1821543961983</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29217,7 +29217,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J25" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K25" t="n">
         <v>67.02998013918997</v>
@@ -29235,7 +29235,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29308,7 +29308,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4847505240008</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O26" t="n">
         <v>213.484750524001</v>
@@ -29351,25 +29351,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>89.05196630776244</v>
       </c>
       <c r="D27" t="n">
-        <v>134.0127682951988</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I27" t="n">
         <v>107.3634103439873</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.86945587416103</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.5907913200043</v>
@@ -29414,7 +29414,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="W27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>213.484750524001</v>
@@ -29451,19 +29451,19 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I28" t="n">
-        <v>213.484750524001</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
-        <v>213.484750524001</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
-        <v>157.7245848035442</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L28" t="n">
         <v>32.15181624817887</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889344</v>
+        <v>102.7822438366232</v>
       </c>
       <c r="N28" t="n">
         <v>16.52015736928134</v>
@@ -29472,7 +29472,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024886</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2169859636892</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="30">
@@ -29594,10 +29594,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>134.5481570370326</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X30" t="n">
-        <v>213.484750524001</v>
+        <v>144.883365559572</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.484750524001</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29685,22 +29685,22 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H31" t="n">
-        <v>213.484750524001</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I31" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J31" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K31" t="n">
-        <v>213.484750524001</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L31" t="n">
         <v>32.15181624817887</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889344</v>
+        <v>171.5206309000643</v>
       </c>
       <c r="N31" t="n">
         <v>16.52015736928134</v>
@@ -29709,34 +29709,34 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.2169859636892</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R31" t="n">
-        <v>206.018538103938</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="32">
@@ -29779,7 +29779,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="M32" t="n">
-        <v>194.19533564075</v>
+        <v>194.1953356407508</v>
       </c>
       <c r="N32" t="n">
         <v>214.3124603908652</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29834,10 +29834,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29849,7 +29849,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161009</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890776</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
         <v>191.5907913200043</v>
@@ -29882,13 +29882,13 @@
         <v>214.3124603908652</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908652</v>
+        <v>7.680435169901415</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>86.45701974556442</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>214.3124603908652</v>
@@ -29913,40 +29913,40 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>187.9682355569227</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>214.3124603908652</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>214.3124603908652</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H34" t="n">
-        <v>214.3124603908652</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I34" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928131</v>
+        <v>55.46400169322054</v>
       </c>
       <c r="O34" t="n">
-        <v>37.47888399777676</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="P34" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2169859636892</v>
@@ -29983,40 +29983,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="J35" t="n">
-        <v>236.0383153199317</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="K35" t="n">
-        <v>6.727192146300908</v>
+        <v>6.727192146300958</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>157.2008572554548</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,34 +30025,34 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0591682562688</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0591682562688</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0591682562688</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0591682562688</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
     </row>
     <row r="36">
@@ -30065,16 +30065,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>150.9953572529459</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446044746268</v>
@@ -30086,7 +30086,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,16 +30107,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161009</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280694968886</v>
@@ -30125,13 +30125,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>116.5933414446441</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30165,31 +30165,31 @@
         <v>164.852968067965</v>
       </c>
       <c r="J37" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N37" t="n">
-        <v>52.07665930312825</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O37" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P37" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R37" t="n">
-        <v>203.4299611556341</v>
+        <v>238.9864630894812</v>
       </c>
       <c r="S37" t="n">
         <v>235.4380443661805</v>
@@ -30198,13 +30198,13 @@
         <v>223.761558450323</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0591682562688</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K38" t="n">
-        <v>6.727192146300908</v>
+        <v>84.1864579013359</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>72.22945414207769</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3720284248848</v>
       </c>
       <c r="O38" t="n">
-        <v>225.8945117006671</v>
+        <v>225.8945117006673</v>
       </c>
       <c r="P38" t="n">
-        <v>15.0919723510887</v>
+        <v>15.09197235108875</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="R38" t="n">
-        <v>194.8815453823668</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0591682562688</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0591682562688</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30302,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>157.4155280451427</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30311,7 +30311,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>110.3495672376611</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446044746268</v>
@@ -30323,7 +30323,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,31 +30344,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7198007890776</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.243774206983062</v>
+        <v>6.243774206982948</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30393,7 +30393,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>204.2572768609994</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H40" t="n">
         <v>165.8243976546666</v>
@@ -30402,25 +30402,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J40" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K40" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O40" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P40" t="n">
-        <v>58.47859890024885</v>
+        <v>94.03510083409591</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2169859636892</v>
@@ -30435,13 +30435,13 @@
         <v>223.761558450323</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,22 +30481,22 @@
         <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
+        <v>76.78161896459405</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6.727192146300958</v>
+      </c>
+      <c r="L41" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="K41" t="n">
-        <v>241.009769215476</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>30.80847985930714</v>
       </c>
       <c r="O41" t="n">
-        <v>73.24018029572132</v>
+        <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
         <v>241.009769215476</v>
@@ -30505,13 +30505,13 @@
         <v>241.009769215476</v>
       </c>
       <c r="R41" t="n">
+        <v>194.8815453823668</v>
+      </c>
+      <c r="S41" t="n">
+        <v>227.5169945584482</v>
+      </c>
+      <c r="T41" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="S41" t="n">
-        <v>241.009769215476</v>
-      </c>
-      <c r="T41" t="n">
-        <v>222.4658813998192</v>
       </c>
       <c r="U41" t="n">
         <v>241.009769215476</v>
@@ -30551,16 +30551,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,13 +30581,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>90.90167064986507</v>
       </c>
       <c r="T42" t="n">
         <v>214.9709236054903</v>
@@ -30596,13 +30596,13 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>200.0956882710216</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30639,25 +30639,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O43" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P43" t="n">
-        <v>161.5772333211474</v>
+        <v>161.5772333211475</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2169859636892</v>
@@ -30727,16 +30727,16 @@
         <v>241.009769215476</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="N44" t="n">
-        <v>54.69629248006449</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>58.1482079446331</v>
       </c>
       <c r="P44" t="n">
-        <v>241.009769215476</v>
+        <v>15.09197235108875</v>
       </c>
       <c r="Q44" t="n">
         <v>241.009769215476</v>
@@ -30748,7 +30748,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="T44" t="n">
-        <v>241.009769215476</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U44" t="n">
         <v>241.009769215476</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30782,13 +30782,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
         <v>125.7355245857741</v>
@@ -30797,7 +30797,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,19 +30818,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161005</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7198007890776</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>111.8860297584891</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -30839,10 +30839,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>37.33230942366615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>225.8875362608717</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30864,7 +30864,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>241.009769215476</v>
       </c>
       <c r="G46" t="n">
         <v>168.7007749271525</v>
@@ -30876,37 +30876,37 @@
         <v>164.852968067965</v>
       </c>
       <c r="J46" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013918995</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889341</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O46" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024884</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R46" t="n">
-        <v>241.009769215476</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
         <v>235.4380443661805</v>
       </c>
       <c r="T46" t="n">
-        <v>241.009769215476</v>
+        <v>224.7773058741923</v>
       </c>
       <c r="U46" t="n">
         <v>241.009769215476</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H11" t="n">
         <v>4.165312310217852</v>
@@ -31762,16 +31762,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M11" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O11" t="n">
         <v>68.52759814556021</v>
@@ -31780,7 +31780,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R11" t="n">
         <v>25.54857067318172</v>
@@ -31792,7 +31792,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H12" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J12" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L12" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N12" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P12" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R12" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S12" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431670529375088</v>
@@ -31923,10 +31923,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N13" t="n">
         <v>27.91832636309192</v>
@@ -31941,16 +31941,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S13" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H14" t="n">
         <v>4.165312310217852</v>
@@ -31999,16 +31999,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M14" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O14" t="n">
         <v>68.52759814556021</v>
@@ -32017,7 +32017,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R14" t="n">
         <v>25.54857067318172</v>
@@ -32029,7 +32029,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H15" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J15" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L15" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N15" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P15" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R15" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S15" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375088</v>
@@ -32160,10 +32160,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N16" t="n">
         <v>27.91832636309192</v>
@@ -32178,16 +32178,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S16" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H17" t="n">
         <v>4.165312310217852</v>
@@ -32236,16 +32236,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M17" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O17" t="n">
         <v>68.52759814556021</v>
@@ -32254,7 +32254,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R17" t="n">
         <v>25.54857067318172</v>
@@ -32266,7 +32266,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H18" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J18" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L18" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N18" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P18" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R18" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S18" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375088</v>
@@ -32397,10 +32397,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N19" t="n">
         <v>27.91832636309192</v>
@@ -32415,16 +32415,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S19" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H20" t="n">
         <v>4.165312310217852</v>
@@ -32473,16 +32473,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M20" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O20" t="n">
         <v>68.52759814556021</v>
@@ -32491,7 +32491,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R20" t="n">
         <v>25.54857067318172</v>
@@ -32503,7 +32503,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H21" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J21" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L21" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N21" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P21" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R21" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S21" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375088</v>
@@ -32634,10 +32634,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N22" t="n">
         <v>27.91832636309192</v>
@@ -32652,16 +32652,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S22" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H23" t="n">
         <v>4.165312310217852</v>
@@ -32710,16 +32710,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M23" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O23" t="n">
         <v>68.52759814556021</v>
@@ -32728,7 +32728,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R23" t="n">
         <v>25.54857067318172</v>
@@ -32740,7 +32740,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H24" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J24" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L24" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N24" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P24" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R24" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S24" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375088</v>
@@ -32871,10 +32871,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N25" t="n">
         <v>27.91832636309192</v>
@@ -32889,16 +32889,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S25" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H26" t="n">
         <v>4.165312310217852</v>
@@ -32947,16 +32947,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M26" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O26" t="n">
         <v>68.52759814556021</v>
@@ -32965,7 +32965,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R26" t="n">
         <v>25.54857067318172</v>
@@ -32977,7 +32977,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H27" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J27" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L27" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N27" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P27" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R27" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S27" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375088</v>
@@ -33108,10 +33108,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N28" t="n">
         <v>27.91832636309192</v>
@@ -33126,16 +33126,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S28" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H29" t="n">
         <v>4.165312310217852</v>
@@ -33184,16 +33184,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M29" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O29" t="n">
         <v>68.52759814556021</v>
@@ -33202,7 +33202,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R29" t="n">
         <v>25.54857067318172</v>
@@ -33214,7 +33214,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H30" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J30" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L30" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N30" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P30" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R30" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S30" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431670529375088</v>
@@ -33345,10 +33345,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N31" t="n">
         <v>27.91832636309192</v>
@@ -33363,16 +33363,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S31" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I32" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M32" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P32" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H33" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I33" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862174</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R33" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H34" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L34" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I35" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M35" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P35" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H36" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I36" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862174</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R36" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H37" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L37" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I38" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M38" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P38" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H39" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I39" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862174</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R39" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H40" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L40" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I41" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M41" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P41" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H42" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I42" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862174</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R42" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L43" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631739</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217856</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501028</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645946</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246063</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M44" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556028</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P44" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178823</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318175</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610835</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168795</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705391</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650135</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H45" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729631</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000176</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133257</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862174</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922251</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935664</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971373</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014384</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L46" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786396</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309195</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545178</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542662</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629253</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T46" t="n">
-        <v>0.779517221567944</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00995128367959079</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35164,7 +35164,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -35206,7 +35206,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3.199249640013477</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="M9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
-        <v>3.069987028295762</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>83.93522949518547</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4210720067668</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.192770182586</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641141</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936138</v>
+        <v>41.79818866181658</v>
       </c>
       <c r="P11" t="n">
         <v>163.0562918019791</v>
@@ -35559,7 +35559,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.32386649840122</v>
       </c>
       <c r="I13" t="n">
         <v>13.29529608510276</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1182840138778</v>
+        <v>66.52759467343034</v>
       </c>
       <c r="L13" t="n">
-        <v>75.06036547234743</v>
+        <v>145.9964479048889</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>140.669380155291</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>119.6696652528189</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>101.3666451884738</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4210720067668</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>47.192770182586</v>
+        <v>47.19277018258599</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641141</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514382</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O14" t="n">
         <v>34.56629766936138</v>
@@ -35665,7 +35665,7 @@
         <v>163.0562918019791</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.00511142235734</v>
+        <v>23.19778368218506</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35781,13 +35781,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.69108318109554</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.47212294084289</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35796,7 +35796,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.3238664984013</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1182840138778</v>
+        <v>111.1182840138779</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>45.53813362513265</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N16" t="n">
-        <v>139.2869397468288</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.669380155291</v>
+        <v>140.6693801552911</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6696652528189</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,37 +35881,37 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.192770182586</v>
+        <v>47.19277018258599</v>
       </c>
       <c r="M17" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O17" t="n">
         <v>34.56629766936138</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.57546622567619</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5661255446176</v>
+        <v>12.62544797821181</v>
       </c>
       <c r="S17" t="n">
         <v>69.93067636853624</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>47.29712943433466</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43790171150837</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>66.61947383179273</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>47.19277018258599</v>
+      </c>
+      <c r="M20" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="K20" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="L20" t="n">
-        <v>47.192770182586</v>
-      </c>
-      <c r="M20" t="n">
-        <v>81.67868594641141</v>
-      </c>
       <c r="N20" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O20" t="n">
         <v>34.56629766936138</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Q20" t="n">
-        <v>26.1182226352396</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43790171150837</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="K23" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="L23" t="n">
-        <v>47.192770182586</v>
       </c>
       <c r="M23" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936138</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P23" t="n">
-        <v>26.11822263523971</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>34.06440656124749</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L24" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M24" t="n">
         <v>183.5117642464701</v>
@@ -36604,10 +36604,10 @@
         <v>295.1634364704124</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691446</v>
+        <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P26" t="n">
         <v>198.3927781729122</v>
@@ -36616,7 +36616,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163413</v>
+        <v>18.60320514163415</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36747,19 +36747,19 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.63178245603592</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.24514294109201</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>90.6946046643542</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>77.56537843772979</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0061516237521</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>206.7575583777</v>
       </c>
       <c r="L29" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065869</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704123</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691447</v>
       </c>
       <c r="O29" t="n">
         <v>248.0510481933623</v>
@@ -36850,10 +36850,10 @@
         <v>198.3927781729122</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865789</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163413</v>
+        <v>18.60320514163407</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.86782985903287</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36981,7 +36981,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.66035286933437</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36990,13 +36990,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>146.454770384811</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>146.3037655011708</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37008,10 +37008,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.26776456031169</v>
       </c>
       <c r="R31" t="n">
-        <v>2.588576948303881</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>207.5852682445643</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734513</v>
+        <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
-        <v>275.8740215871615</v>
+        <v>275.8740215871622</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4012413360091</v>
+        <v>290.401241336009</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602267</v>
+        <v>248.8787580602266</v>
       </c>
       <c r="P32" t="n">
         <v>199.2204880397765</v>
@@ -37090,7 +37090,7 @@
         <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849842</v>
+        <v>19.43091500849839</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L33" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M33" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O33" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37209,16 +37209,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.29209434469767</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>75.38557817241858</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>45.61168546371276</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>48.48806273619865</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>38.9438443239392</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.8335763930884</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.88249923523112</v>
+        <v>10.88249923523111</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,40 +37303,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2566963553376</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258605</v>
+        <v>47.19277018258599</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641146</v>
+        <v>238.8795432018662</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514388</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O35" t="n">
-        <v>34.56629766936143</v>
+        <v>34.56629766936138</v>
       </c>
       <c r="P35" t="n">
-        <v>256.9671959051801</v>
+        <v>256.9671959051799</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3474312188469</v>
+        <v>182.3474312188468</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390197</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782061</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59328685644952</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361903</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L36" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M36" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O36" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>35.55650193384693</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,40 +37540,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2775492916748</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>77.45926575503493</v>
       </c>
       <c r="L38" t="n">
-        <v>47.19277018258605</v>
+        <v>47.19277018258599</v>
       </c>
       <c r="M38" t="n">
-        <v>153.9081400884891</v>
+        <v>81.67868594641141</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514388</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3474312188469</v>
+        <v>182.3474312188468</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.17762287390188</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782061</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59328685644952</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90862676361903</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L39" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M39" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O39" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>35.55650193384693</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>234.2825770691751</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>47.19277018258605</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6884551618875</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514388</v>
+        <v>106.897260804451</v>
       </c>
       <c r="O41" t="n">
-        <v>107.8064779650827</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643874</v>
+        <v>225.9177968643873</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310923</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702787</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.54388781565679</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L42" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M42" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O42" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,31 +38020,31 @@
         <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2025393980621</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M44" t="n">
-        <v>81.67868594641146</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N44" t="n">
-        <v>130.7850734252084</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O44" t="n">
-        <v>34.56629766936145</v>
+        <v>92.71450561399448</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643874</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310923</v>
+        <v>46.12822383310917</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702787</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565679</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L45" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M45" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N45" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O45" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.27061559590363</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.0828869970294</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38196,13 +38196,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.57980805984194</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.24821076515303</v>
+        <v>1.015747423869326</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
